--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl4-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl4-Ackr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>64.472663</v>
+        <v>0.081538</v>
       </c>
       <c r="H2">
-        <v>193.417989</v>
+        <v>0.163076</v>
       </c>
       <c r="I2">
-        <v>0.4634539850319052</v>
+        <v>7.575960821152165E-05</v>
       </c>
       <c r="J2">
-        <v>0.4634539850319052</v>
+        <v>5.051605126665989E-05</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -567,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>17.96513561784867</v>
+        <v>0.02272034626533333</v>
       </c>
       <c r="R2">
-        <v>161.686220560638</v>
+        <v>0.136322077592</v>
       </c>
       <c r="S2">
-        <v>0.4634539850319052</v>
+        <v>7.575960821152165E-05</v>
       </c>
       <c r="T2">
-        <v>0.4634539850319052</v>
+        <v>5.051605126665989E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +590,31 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1347426666666667</v>
+        <v>81.01730333333333</v>
       </c>
       <c r="H3">
-        <v>0.404228</v>
+        <v>243.05191</v>
       </c>
       <c r="I3">
-        <v>0.000968581456306409</v>
+        <v>0.07527581200038437</v>
       </c>
       <c r="J3">
-        <v>0.0009685814563064089</v>
+        <v>0.07529018829269545</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.03754568475288889</v>
+        <v>22.57525552769111</v>
       </c>
       <c r="R3">
-        <v>0.337911162776</v>
+        <v>203.17729974922</v>
       </c>
       <c r="S3">
-        <v>0.000968581456306409</v>
+        <v>0.07527581200038437</v>
       </c>
       <c r="T3">
-        <v>0.0009685814563064089</v>
+        <v>0.07529018829269545</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +652,31 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>74.50600166666668</v>
+        <v>0.534989</v>
       </c>
       <c r="H4">
-        <v>223.518005</v>
+        <v>1.069978</v>
       </c>
       <c r="I4">
-        <v>0.5355774335117884</v>
+        <v>0.0004970756829634497</v>
       </c>
       <c r="J4">
-        <v>0.5355774335117883</v>
+        <v>0.0003314470768365561</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -691,16 +697,140 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>20.76089868174556</v>
+        <v>0.1490732582126667</v>
       </c>
       <c r="R4">
-        <v>186.84808813571</v>
+        <v>0.8944395492760001</v>
       </c>
       <c r="S4">
-        <v>0.5355774335117884</v>
+        <v>0.0004970756829634497</v>
       </c>
       <c r="T4">
-        <v>0.5355774335117883</v>
+        <v>0.0003314470768365561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>949.7643636666668</v>
+      </c>
+      <c r="H5">
+        <v>2849.293091</v>
+      </c>
+      <c r="I5">
+        <v>0.8824569658889333</v>
+      </c>
+      <c r="J5">
+        <v>0.882625498900487</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.2786473333333334</v>
+      </c>
+      <c r="N5">
+        <v>0.8359420000000001</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>264.649307230747</v>
+      </c>
+      <c r="R5">
+        <v>2381.843765076723</v>
+      </c>
+      <c r="S5">
+        <v>0.8824569658889333</v>
+      </c>
+      <c r="T5">
+        <v>0.882625498900487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>44.87453133333333</v>
+      </c>
+      <c r="H6">
+        <v>134.623594</v>
+      </c>
+      <c r="I6">
+        <v>0.04169438681950729</v>
+      </c>
+      <c r="J6">
+        <v>0.04170234967871425</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.2786473333333334</v>
+      </c>
+      <c r="N6">
+        <v>0.8359420000000001</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>12.50416849061645</v>
+      </c>
+      <c r="R6">
+        <v>112.537516415548</v>
+      </c>
+      <c r="S6">
+        <v>0.04169438681950729</v>
+      </c>
+      <c r="T6">
+        <v>0.04170234967871425</v>
       </c>
     </row>
   </sheetData>
